--- a/Documents/CREDITORS JOURNAL TEMPLATE.xlsx
+++ b/Documents/CREDITORS JOURNAL TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lloydnicholson/Documents/GitHub/accounting-app/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE44A5E-9542-3B49-86F3-D6AEA7833494}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F722A-6D94-7943-A690-9FA934ECF0B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{998BA5AC-A104-FF4D-BE67-4CE905058659}"/>
   </bookViews>
@@ -451,15 +451,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -495,6 +486,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AE31AB-AD95-E74A-91A3-0A670FFDFDD2}">
   <dimension ref="B3:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,6 +825,9 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.25">
@@ -854,30 +857,30 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -897,223 +900,223 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="2:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="13" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="23"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="23"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="23"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="23"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="23"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="23"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="23"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="23"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
